--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="1506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="1508">
   <si>
     <t>Weldfast Wingsmith</t>
   </si>
@@ -4545,6 +4545,12 @@
   </si>
   <si>
     <t>Plummet</t>
+  </si>
+  <si>
+    <t>Radiant Flames</t>
+  </si>
+  <si>
+    <t>Part the Waterveil</t>
   </si>
 </sst>
 </file>
@@ -4914,11 +4920,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F1511"/>
+  <dimension ref="A1:F1513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1501" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1512" sqref="F1512"/>
+      <pane ySplit="1" topLeftCell="A1498" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1514" sqref="C1514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17029,6 +17035,22 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1512" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1512" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C1512">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1513" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C1513">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1507">
     <filterColumn colId="1">

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="1508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="1509">
   <si>
     <t>Weldfast Wingsmith</t>
   </si>
@@ -4551,6 +4551,9 @@
   </si>
   <si>
     <t>Part the Waterveil</t>
+  </si>
+  <si>
+    <t>As Foretold</t>
   </si>
 </sst>
 </file>
@@ -4920,11 +4923,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F1513"/>
+  <dimension ref="A1:F1514"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1498" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1514" sqref="C1514"/>
+      <pane ySplit="1" topLeftCell="A1504" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1514" sqref="E1514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17051,6 +17054,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="1514" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1514" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C1514">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1507">
     <filterColumn colId="1">

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="1520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="1521">
   <si>
     <t>Weldfast Wingsmith</t>
   </si>
@@ -4587,6 +4587,9 @@
   </si>
   <si>
     <t>Paradox Engine</t>
+  </si>
+  <si>
+    <t>Liliana, Defiant Necromancer</t>
   </si>
 </sst>
 </file>
@@ -4959,11 +4962,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1523"/>
+  <dimension ref="A1:H1524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1492" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1524" sqref="C1524"/>
+      <pane ySplit="1" topLeftCell="A1522" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1525" sqref="D1525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17191,6 +17194,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1524" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1524" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1524">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1518"/>
   <sortState ref="A2:A2143">

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1518</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -4571,9 +4571,6 @@
     <t>Anointed Procession</t>
   </si>
   <si>
-    <t>EDH Quantity</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
@@ -4623,6 +4620,9 @@
   </si>
   <si>
     <t>Tetravus</t>
+  </si>
+  <si>
+    <t>EDHRec Freq</t>
   </si>
 </sst>
 </file>
@@ -4998,16 +4998,18 @@
   <dimension ref="A1:H1539"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1523" sqref="C1523"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5030,10 +5032,10 @@
         <v>1501</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>1514</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5118,7 +5120,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -6635,7 +6637,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -6672,7 +6674,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -6709,7 +6711,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -6882,7 +6884,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B234" t="b">
         <v>1</v>
@@ -7010,7 +7012,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B250" t="b">
         <v>1</v>
@@ -7090,7 +7092,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B260" t="b">
         <v>1</v>
@@ -7146,7 +7148,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B267" t="b">
         <v>1</v>
@@ -10954,7 +10956,7 @@
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="D743">
         <v>1</v>
@@ -11967,7 +11969,7 @@
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B870" t="b">
         <v>1</v>
@@ -12199,7 +12201,7 @@
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B899" t="b">
         <v>1</v>
@@ -12375,7 +12377,7 @@
     </row>
     <row r="921" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="C921">
         <v>1</v>
@@ -13572,7 +13574,7 @@
     </row>
     <row r="1071" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1071" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B1071" t="b">
         <v>1</v>
@@ -14620,7 +14622,7 @@
     </row>
     <row r="1202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1202" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B1202" t="b">
         <v>1</v>
@@ -15172,7 +15174,7 @@
     </row>
     <row r="1271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1271" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B1271" t="b">
         <v>1</v>
@@ -15700,7 +15702,7 @@
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1337" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B1337" t="b">
         <v>1</v>
@@ -17356,11 +17358,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1518">
-    <sortState ref="A2:E1539">
-      <sortCondition ref="A1:A1518"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:H1"/>
   <sortState ref="A2:A2143">
     <sortCondition ref="A1281"/>
   </sortState>
